--- a/jasonluthercomparison/Jason_comp_2005_01_21_Apr3.xlsx
+++ b/jasonluthercomparison/Jason_comp_2005_01_21_Apr3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="598" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1656" uniqueCount="400">
   <si>
     <t>cell_name</t>
   </si>
@@ -1159,6 +1159,60 @@
   </si>
   <si>
     <t>-100.78</t>
+  </si>
+  <si>
+    <t>-43.5967</t>
+  </si>
+  <si>
+    <t>-60.2619</t>
+  </si>
+  <si>
+    <t>126.3</t>
+  </si>
+  <si>
+    <t>-30.9651</t>
+  </si>
+  <si>
+    <t>-39.6844</t>
+  </si>
+  <si>
+    <t>-48.4038</t>
+  </si>
+  <si>
+    <t>-57.1231</t>
+  </si>
+  <si>
+    <t>137.44</t>
+  </si>
+  <si>
+    <t>110.32</t>
+  </si>
+  <si>
+    <t>109.58</t>
+  </si>
+  <si>
+    <t>85.38</t>
+  </si>
+  <si>
+    <t>42.82</t>
+  </si>
+  <si>
+    <t>27.04</t>
+  </si>
+  <si>
+    <t>23.66</t>
+  </si>
+  <si>
+    <t>18.56</t>
+  </si>
+  <si>
+    <t>164.9</t>
+  </si>
+  <si>
+    <t>136.6</t>
+  </si>
+  <si>
+    <t>101.86</t>
   </si>
 </sst>
 </file>
@@ -1308,220 +1362,220 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>328</v>
+        <v>392</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>115</v>
+        <v>383</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>202</v>
+        <v>385</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>220</v>
+        <v>386</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>256</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>275</v>
+        <v>389</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>21</v>
@@ -1530,135 +1584,135 @@
         <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7">
